--- a/results/plots/Delay.xlsx
+++ b/results/plots/Delay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="4" r:id="rId1"/>
@@ -55,16 +55,16 @@
     <t>Array size (N) = 1000</t>
   </si>
   <si>
-    <t>Clients count (M) = 10</t>
-  </si>
-  <si>
-    <t>Delay (?) = 0</t>
-  </si>
-  <si>
     <t>Requests count (X) = 10</t>
   </si>
   <si>
-    <t>Change Delay (?) from 0 to 300 with step 30</t>
+    <t>Clients count (M) = 30</t>
+  </si>
+  <si>
+    <t>Delay (∆) = 0</t>
+  </si>
+  <si>
+    <t>Change Delay (∆) from 0 to 200 with step 20</t>
   </si>
 </sst>
 </file>
@@ -164,34 +164,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -203,37 +203,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>492.4</c:v>
+                  <c:v>1415.5333330000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>570.20000000000005</c:v>
+                  <c:v>1239.5666670000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>750.4</c:v>
+                  <c:v>1392.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1060.4000000000001</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1386.4</c:v>
+                  <c:v>1458.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1681.7</c:v>
+                  <c:v>1592.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1972.2</c:v>
+                  <c:v>1842.5666670000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2284.1</c:v>
+                  <c:v>1920.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2573.9</c:v>
+                  <c:v>2038.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2896.7</c:v>
+                  <c:v>2193.2333330000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3163.6</c:v>
+                  <c:v>2485.9666670000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,34 +267,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,37 +306,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>410.5</c:v>
+                  <c:v>1272.9000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>615.20000000000005</c:v>
+                  <c:v>1285.366667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>805.7</c:v>
+                  <c:v>1359.666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1047.9000000000001</c:v>
+                  <c:v>1276.7666670000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1392.5</c:v>
+                  <c:v>1313.866667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1673.9</c:v>
+                  <c:v>1384.166667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011.7</c:v>
+                  <c:v>1746.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2276.1</c:v>
+                  <c:v>1748.7666670000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2578.6</c:v>
+                  <c:v>2199.9333329999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2866.9</c:v>
+                  <c:v>2121</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3146.1</c:v>
+                  <c:v>2374.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,34 +370,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,37 +409,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1196.5</c:v>
+                  <c:v>3186.666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1110.5999999999999</c:v>
+                  <c:v>3246.7666669999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1096.7</c:v>
+                  <c:v>3249.666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1195.2</c:v>
+                  <c:v>3256.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1444.9</c:v>
+                  <c:v>3211.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1746.4</c:v>
+                  <c:v>3196.6333330000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2056.8000000000002</c:v>
+                  <c:v>3152.8666669999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2327.8000000000002</c:v>
+                  <c:v>3425.6333330000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2637.6</c:v>
+                  <c:v>3301.166667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2931</c:v>
+                  <c:v>3928.166667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3374.5</c:v>
+                  <c:v>3280.666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,34 +473,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,37 +512,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>148.4</c:v>
+                  <c:v>145.966667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>471.2</c:v>
+                  <c:v>337.933333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>763</c:v>
+                  <c:v>541.86666700000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1068.8</c:v>
+                  <c:v>746.36666700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1393.4</c:v>
+                  <c:v>935.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1641.1</c:v>
+                  <c:v>1216.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1939.4</c:v>
+                  <c:v>1358.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2260.5</c:v>
+                  <c:v>1540.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2587.3000000000002</c:v>
+                  <c:v>1734.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2863.3</c:v>
+                  <c:v>1934.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3153.8</c:v>
+                  <c:v>2156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,34 +576,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,37 +615,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3508.9</c:v>
+                  <c:v>1982.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>660.4</c:v>
+                  <c:v>1080.166667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>859.1</c:v>
+                  <c:v>1196.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1159.3</c:v>
+                  <c:v>1218.7666670000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1406.9</c:v>
+                  <c:v>1356.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1683.1</c:v>
+                  <c:v>1405.133333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015.3</c:v>
+                  <c:v>1570</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2354</c:v>
+                  <c:v>1992.5666670000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2575.4</c:v>
+                  <c:v>2009.133333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2964.2</c:v>
+                  <c:v>2234.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3246</c:v>
+                  <c:v>2327.333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,34 +679,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,37 +718,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>542.79999999999995</c:v>
+                  <c:v>1037.5333330000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>626.1</c:v>
+                  <c:v>1072.366667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>882.1</c:v>
+                  <c:v>1207.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1165.5999999999999</c:v>
+                  <c:v>1281.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1463.2</c:v>
+                  <c:v>1419.166667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1677.2</c:v>
+                  <c:v>1405.0666670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1978.3</c:v>
+                  <c:v>1552.5333330000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2325.1</c:v>
+                  <c:v>1824.9333329999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2613.1999999999998</c:v>
+                  <c:v>1961.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2870.9</c:v>
+                  <c:v>2122.8666669999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3187.7</c:v>
+                  <c:v>2336.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,34 +782,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,37 +821,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>490.3</c:v>
+                  <c:v>975.46666700000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>590.4</c:v>
+                  <c:v>1018.966667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>857.4</c:v>
+                  <c:v>1243.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1103.3</c:v>
+                  <c:v>1195.866667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1408.3</c:v>
+                  <c:v>1314.7666670000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1655.5</c:v>
+                  <c:v>1412.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2022.9</c:v>
+                  <c:v>1631.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2307.5</c:v>
+                  <c:v>1792.2666670000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2578</c:v>
+                  <c:v>1932.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3340.7</c:v>
+                  <c:v>2116.5333329999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3238.8</c:v>
+                  <c:v>2281.3000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,34 +885,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,37 +924,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>590.5</c:v>
+                  <c:v>1012.966667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>684.3</c:v>
+                  <c:v>1030.4666669999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>855.7</c:v>
+                  <c:v>1132.166667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1107.9000000000001</c:v>
+                  <c:v>1167.866667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1407.6</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1737</c:v>
+                  <c:v>1434.0333330000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2008.5</c:v>
+                  <c:v>1563.9666669999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2290.3000000000002</c:v>
+                  <c:v>1809.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2644.3</c:v>
+                  <c:v>1904.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2936.6</c:v>
+                  <c:v>2167.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3171.6</c:v>
+                  <c:v>2394.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,34 +988,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,37 +1027,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>500.6</c:v>
+                  <c:v>832.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>502.1</c:v>
+                  <c:v>978.16666699999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>885.6</c:v>
+                  <c:v>977.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1055.5999999999999</c:v>
+                  <c:v>1161.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1390.7</c:v>
+                  <c:v>1358.866667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1875</c:v>
+                  <c:v>1537.133333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1958.9</c:v>
+                  <c:v>1688.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2451.1</c:v>
+                  <c:v>2014.9333329999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2593</c:v>
+                  <c:v>2035.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2849</c:v>
+                  <c:v>2303.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3169.2</c:v>
+                  <c:v>2301.2333330000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,34 +1091,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,37 +1130,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>430.9</c:v>
+                  <c:v>962.03333299999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>988.6</c:v>
+                  <c:v>975.16666699999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>786.5</c:v>
+                  <c:v>1229.633333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1083.5</c:v>
+                  <c:v>1136.333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1367.1</c:v>
+                  <c:v>1267.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1657.5</c:v>
+                  <c:v>1342.2666670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1974.9</c:v>
+                  <c:v>1418.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2291.5</c:v>
+                  <c:v>1671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2564.4</c:v>
+                  <c:v>1836.166667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2944.7</c:v>
+                  <c:v>2207.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3255.3</c:v>
+                  <c:v>2210.5333329999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,11 +1177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94830080"/>
-        <c:axId val="77193792"/>
+        <c:axId val="91815424"/>
+        <c:axId val="63480960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94830080"/>
+        <c:axId val="91815424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77193792"/>
+        <c:crossAx val="63480960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1199,7 +1199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77193792"/>
+        <c:axId val="63480960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94830080"/>
+        <c:crossAx val="91815424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,34 +1279,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,37 +1318,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>488.4</c:v>
+                  <c:v>13.646667000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>560.20000000000005</c:v>
+                  <c:v>6.2166670000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>733.1</c:v>
+                  <c:v>7.2233330000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1049.7</c:v>
+                  <c:v>5.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1372.8</c:v>
+                  <c:v>7.023333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1666.1</c:v>
+                  <c:v>6.2566670000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1951.6</c:v>
+                  <c:v>6.2033329999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2272.6999999999998</c:v>
+                  <c:v>6.3733329999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2555.3000000000002</c:v>
+                  <c:v>5.2166670000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2881.4</c:v>
+                  <c:v>5.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3151.1</c:v>
+                  <c:v>12.703333000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,34 +1382,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,37 +1421,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>402.3</c:v>
+                  <c:v>5.6866669999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>599.20000000000005</c:v>
+                  <c:v>6.266667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>787.9</c:v>
+                  <c:v>6.3633329999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1037.2</c:v>
+                  <c:v>6.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1374.2</c:v>
+                  <c:v>6.943333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1661.6</c:v>
+                  <c:v>5.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1997.1</c:v>
+                  <c:v>5.6866669999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2268.5</c:v>
+                  <c:v>4.8166669999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2565.6999999999998</c:v>
+                  <c:v>17.073333000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2852.9</c:v>
+                  <c:v>4.8733329999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3132.3</c:v>
+                  <c:v>5.5066670000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,34 +1485,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,37 +1524,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12.33</c:v>
+                  <c:v>1.0533330000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.08</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.92</c:v>
+                  <c:v>0.81333299999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.22</c:v>
+                  <c:v>0.86666699999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.4</c:v>
+                  <c:v>0.83333299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.54</c:v>
+                  <c:v>0.88666699999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.32</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.55</c:v>
+                  <c:v>0.85666699999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.57</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.86</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.09</c:v>
+                  <c:v>0.83666700000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,34 +1588,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,37 +1627,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>142.9</c:v>
+                  <c:v>6.8466670000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>479.7</c:v>
+                  <c:v>6.5633330000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>762.9</c:v>
+                  <c:v>6.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1059.4000000000001</c:v>
+                  <c:v>6.4733330000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1359.5</c:v>
+                  <c:v>5.9266670000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1636.4</c:v>
+                  <c:v>5.8866670000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1940</c:v>
+                  <c:v>7.7866669999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2256</c:v>
+                  <c:v>6.0066670000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2579</c:v>
+                  <c:v>5.56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2862.1</c:v>
+                  <c:v>5.4866669999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3149.8</c:v>
+                  <c:v>6.1866669999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,34 +1691,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,37 +1730,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>504</c:v>
+                  <c:v>11.70303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>642.6</c:v>
+                  <c:v>7.1727270000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>845.5</c:v>
+                  <c:v>7.5090909999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1144.9000000000001</c:v>
+                  <c:v>5.915152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1395.8</c:v>
+                  <c:v>5.618182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1661.7</c:v>
+                  <c:v>6.3333329999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2003.3</c:v>
+                  <c:v>5.5727270000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2339.8000000000002</c:v>
+                  <c:v>6.3151520000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2558.1999999999998</c:v>
+                  <c:v>7.6909090000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2948.3</c:v>
+                  <c:v>9.6424240000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3230.7</c:v>
+                  <c:v>5.8545449999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,34 +1794,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,37 +1833,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>530.29999999999995</c:v>
+                  <c:v>4.3878789999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>606.70000000000005</c:v>
+                  <c:v>5.8060609999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>867.5</c:v>
+                  <c:v>9.9939389999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1151.4000000000001</c:v>
+                  <c:v>5.4545450000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1451.2</c:v>
+                  <c:v>20.775758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1656.9</c:v>
+                  <c:v>8.5848479999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1959.3</c:v>
+                  <c:v>5.0151519999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2307.4</c:v>
+                  <c:v>5.2787879999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2597.3000000000002</c:v>
+                  <c:v>4.8848479999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2857.9</c:v>
+                  <c:v>5.293939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3172.8</c:v>
+                  <c:v>5.2272730000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,34 +1897,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,37 +1936,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>488.1</c:v>
+                  <c:v>6.4787879999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>583.70000000000005</c:v>
+                  <c:v>6.3939389999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>846.8</c:v>
+                  <c:v>8.6030300000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1091.8</c:v>
+                  <c:v>6.7515150000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1390.3</c:v>
+                  <c:v>5.6878789999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1642.5</c:v>
+                  <c:v>6.1727270000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010.8</c:v>
+                  <c:v>6.2121209999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2290.1</c:v>
+                  <c:v>6.3333329999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2563.1</c:v>
+                  <c:v>6.2818180000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3358.3</c:v>
+                  <c:v>5.9969700000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3224.5</c:v>
+                  <c:v>6.1121210000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2000,34 +2000,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,37 +2039,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>582.20000000000005</c:v>
+                  <c:v>4.912121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>667.5</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>844.2</c:v>
+                  <c:v>5.5666669999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1099.8</c:v>
+                  <c:v>6.351515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1394.1</c:v>
+                  <c:v>5.5060609999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1722.1</c:v>
+                  <c:v>5.412121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1990.4</c:v>
+                  <c:v>5.7242420000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2275.8000000000002</c:v>
+                  <c:v>5.4515149999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2624</c:v>
+                  <c:v>5.1666670000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2925.4</c:v>
+                  <c:v>5.7818180000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3154.8</c:v>
+                  <c:v>5.087879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,34 +2103,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,37 +2142,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.9693880000000004</c:v>
+                  <c:v>27.277965999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.06</c:v>
+                  <c:v>21.760943000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.030303</c:v>
+                  <c:v>15.832215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.73</c:v>
+                  <c:v>21.716667000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.21</c:v>
+                  <c:v>19.575251000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4183669999999999</c:v>
+                  <c:v>14.572391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8899999999999997</c:v>
+                  <c:v>10.874575999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8099999999999996</c:v>
+                  <c:v>11.907534</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.23</c:v>
+                  <c:v>9.60473</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.58</c:v>
+                  <c:v>17.276667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.33</c:v>
+                  <c:v>7.8053689999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,34 +2206,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2245,37 +2245,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.11</c:v>
+                  <c:v>44.696666999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.052632</c:v>
+                  <c:v>28.498328000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8499999999999996</c:v>
+                  <c:v>24.072413999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.05</c:v>
+                  <c:v>22.146667000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4800000000000004</c:v>
+                  <c:v>22.706666999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.96</c:v>
+                  <c:v>12.244147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8099999999999996</c:v>
+                  <c:v>6.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.14</c:v>
+                  <c:v>12.826667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.16</c:v>
+                  <c:v>10.096667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1399999999999997</c:v>
+                  <c:v>14.353535000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2799999999999994</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,11 +2292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96259072"/>
-        <c:axId val="77196096"/>
+        <c:axId val="93539328"/>
+        <c:axId val="63483264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96259072"/>
+        <c:axId val="93539328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77196096"/>
+        <c:crossAx val="63483264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2314,7 +2314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77196096"/>
+        <c:axId val="63483264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,13 +2325,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96259072"/>
+        <c:crossAx val="93539328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2393,34 +2394,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,34 +2497,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,34 +2600,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,34 +2703,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,34 +2806,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,34 +2909,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,34 +3012,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,34 +3115,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,34 +3218,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,34 +3321,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>270</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,11 +3407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96196608"/>
-        <c:axId val="77198976"/>
+        <c:axId val="94607360"/>
+        <c:axId val="63486144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96196608"/>
+        <c:axId val="94607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77198976"/>
+        <c:crossAx val="63486144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3428,7 +3429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77198976"/>
+        <c:axId val="63486144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96196608"/>
+        <c:crossAx val="94607360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3859,9 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3877,17 +3876,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -3904,9 +3903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3915,681 +3912,681 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>492.4</v>
+        <v>1415.5333330000001</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>410.5</v>
+        <v>1272.9000000000001</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1">
-        <v>1196.5</v>
+        <v>3186.666667</v>
       </c>
       <c r="J1">
         <v>0</v>
       </c>
       <c r="K1">
-        <v>148.4</v>
+        <v>145.966667</v>
       </c>
       <c r="M1">
         <v>0</v>
       </c>
       <c r="N1">
-        <v>3508.9</v>
+        <v>1982.7</v>
       </c>
       <c r="P1">
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>542.79999999999995</v>
+        <v>1037.5333330000001</v>
       </c>
       <c r="S1">
         <v>0</v>
       </c>
       <c r="T1">
-        <v>490.3</v>
+        <v>975.46666700000003</v>
       </c>
       <c r="V1">
         <v>0</v>
       </c>
       <c r="W1">
-        <v>590.5</v>
+        <v>1012.966667</v>
       </c>
       <c r="Y1">
         <v>0</v>
       </c>
       <c r="Z1">
-        <v>500.6</v>
+        <v>832.1</v>
       </c>
       <c r="AB1">
         <v>0</v>
       </c>
       <c r="AC1">
-        <v>430.9</v>
+        <v>962.03333299999997</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>570.20000000000005</v>
+        <v>1239.5666670000001</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>615.20000000000005</v>
+        <v>1285.366667</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>1110.5999999999999</v>
+        <v>3246.7666669999999</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>471.2</v>
+        <v>337.933333</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>660.4</v>
+        <v>1080.166667</v>
       </c>
       <c r="P2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>626.1</v>
+        <v>1072.366667</v>
       </c>
       <c r="S2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2">
-        <v>590.4</v>
+        <v>1018.966667</v>
       </c>
       <c r="V2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W2">
-        <v>684.3</v>
+        <v>1030.4666669999999</v>
       </c>
       <c r="Y2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z2">
-        <v>502.1</v>
+        <v>978.16666699999996</v>
       </c>
       <c r="AB2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC2">
-        <v>988.6</v>
+        <v>975.16666699999996</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>750.4</v>
+        <v>1392.7</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>805.7</v>
+        <v>1359.666667</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>1096.7</v>
+        <v>3249.666667</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>763</v>
+        <v>541.86666700000001</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N3">
-        <v>859.1</v>
+        <v>1196.5999999999999</v>
       </c>
       <c r="P3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q3">
-        <v>882.1</v>
+        <v>1207.8</v>
       </c>
       <c r="S3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T3">
-        <v>857.4</v>
+        <v>1243.2</v>
       </c>
       <c r="V3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W3">
-        <v>855.7</v>
+        <v>1132.166667</v>
       </c>
       <c r="Y3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Z3">
-        <v>885.6</v>
+        <v>977.5</v>
       </c>
       <c r="AB3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AC3">
-        <v>786.5</v>
+        <v>1229.633333</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>1060.4000000000001</v>
+        <v>1342</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>1047.9000000000001</v>
+        <v>1276.7666670000001</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>1195.2</v>
+        <v>3256.4</v>
       </c>
       <c r="J4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>1068.8</v>
+        <v>746.36666700000001</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N4">
-        <v>1159.3</v>
+        <v>1218.7666670000001</v>
       </c>
       <c r="P4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q4">
-        <v>1165.5999999999999</v>
+        <v>1281.2</v>
       </c>
       <c r="S4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="T4">
-        <v>1103.3</v>
+        <v>1195.866667</v>
       </c>
       <c r="V4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="W4">
-        <v>1107.9000000000001</v>
+        <v>1167.866667</v>
       </c>
       <c r="Y4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Z4">
-        <v>1055.5999999999999</v>
+        <v>1161.7</v>
       </c>
       <c r="AB4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AC4">
-        <v>1083.5</v>
+        <v>1136.333333</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>1386.4</v>
+        <v>1458.8</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>1392.5</v>
+        <v>1313.866667</v>
       </c>
       <c r="G5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H5">
-        <v>1444.9</v>
+        <v>3211.8</v>
       </c>
       <c r="J5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>1393.4</v>
+        <v>935.9</v>
       </c>
       <c r="M5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>1406.9</v>
+        <v>1356.9</v>
       </c>
       <c r="P5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Q5">
-        <v>1463.2</v>
+        <v>1419.166667</v>
       </c>
       <c r="S5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="T5">
-        <v>1408.3</v>
+        <v>1314.7666670000001</v>
       </c>
       <c r="V5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="W5">
-        <v>1407.6</v>
+        <v>1387</v>
       </c>
       <c r="Y5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Z5">
-        <v>1390.7</v>
+        <v>1358.866667</v>
       </c>
       <c r="AB5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC5">
-        <v>1367.1</v>
+        <v>1267.2</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>1681.7</v>
+        <v>1592.5</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>1673.9</v>
+        <v>1384.166667</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>1746.4</v>
+        <v>3196.6333330000002</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>1641.1</v>
+        <v>1216.8</v>
       </c>
       <c r="M6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6">
-        <v>1683.1</v>
+        <v>1405.133333</v>
       </c>
       <c r="P6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q6">
-        <v>1677.2</v>
+        <v>1405.0666670000001</v>
       </c>
       <c r="S6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="T6">
-        <v>1655.5</v>
+        <v>1412.2</v>
       </c>
       <c r="V6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="W6">
-        <v>1737</v>
+        <v>1434.0333330000001</v>
       </c>
       <c r="Y6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z6">
-        <v>1875</v>
+        <v>1537.133333</v>
       </c>
       <c r="AB6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AC6">
-        <v>1657.5</v>
+        <v>1342.2666670000001</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B7">
-        <v>1972.2</v>
+        <v>1842.5666670000001</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E7">
-        <v>2011.7</v>
+        <v>1746.5</v>
       </c>
       <c r="G7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H7">
-        <v>2056.8000000000002</v>
+        <v>3152.8666669999998</v>
       </c>
       <c r="J7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K7">
-        <v>1939.4</v>
+        <v>1358.3</v>
       </c>
       <c r="M7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N7">
-        <v>2015.3</v>
+        <v>1570</v>
       </c>
       <c r="P7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q7">
-        <v>1978.3</v>
+        <v>1552.5333330000001</v>
       </c>
       <c r="S7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="T7">
-        <v>2022.9</v>
+        <v>1631.8</v>
       </c>
       <c r="V7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="W7">
-        <v>2008.5</v>
+        <v>1563.9666669999999</v>
       </c>
       <c r="Y7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Z7">
-        <v>1958.9</v>
+        <v>1688.6</v>
       </c>
       <c r="AB7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AC7">
-        <v>1974.9</v>
+        <v>1418.6</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="B8">
-        <v>2284.1</v>
+        <v>1920.5</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="E8">
-        <v>2276.1</v>
+        <v>1748.7666670000001</v>
       </c>
       <c r="G8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="H8">
-        <v>2327.8000000000002</v>
+        <v>3425.6333330000002</v>
       </c>
       <c r="J8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="K8">
-        <v>2260.5</v>
+        <v>1540.2</v>
       </c>
       <c r="M8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="N8">
-        <v>2354</v>
+        <v>1992.5666670000001</v>
       </c>
       <c r="P8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="Q8">
-        <v>2325.1</v>
+        <v>1824.9333329999999</v>
       </c>
       <c r="S8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="T8">
-        <v>2307.5</v>
+        <v>1792.2666670000001</v>
       </c>
       <c r="V8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="W8">
-        <v>2290.3000000000002</v>
+        <v>1809.4</v>
       </c>
       <c r="Y8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="Z8">
-        <v>2451.1</v>
+        <v>2014.9333329999999</v>
       </c>
       <c r="AB8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AC8">
-        <v>2291.5</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="B9">
-        <v>2573.9</v>
+        <v>2038.2</v>
       </c>
       <c r="D9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="E9">
-        <v>2578.6</v>
+        <v>2199.9333329999999</v>
       </c>
       <c r="G9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="H9">
-        <v>2637.6</v>
+        <v>3301.166667</v>
       </c>
       <c r="J9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K9">
-        <v>2587.3000000000002</v>
+        <v>1734.4</v>
       </c>
       <c r="M9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N9">
-        <v>2575.4</v>
+        <v>2009.133333</v>
       </c>
       <c r="P9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="Q9">
-        <v>2613.1999999999998</v>
+        <v>1961.7</v>
       </c>
       <c r="S9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="T9">
-        <v>2578</v>
+        <v>1932.4</v>
       </c>
       <c r="V9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="W9">
-        <v>2644.3</v>
+        <v>1904.4</v>
       </c>
       <c r="Y9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="Z9">
-        <v>2593</v>
+        <v>2035.8</v>
       </c>
       <c r="AB9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AC9">
-        <v>2564.4</v>
+        <v>1836.166667</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="B10">
-        <v>2896.7</v>
+        <v>2193.2333330000001</v>
       </c>
       <c r="D10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E10">
-        <v>2866.9</v>
+        <v>2121</v>
       </c>
       <c r="G10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H10">
-        <v>2931</v>
+        <v>3928.166667</v>
       </c>
       <c r="J10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="K10">
-        <v>2863.3</v>
+        <v>1934.3</v>
       </c>
       <c r="M10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="N10">
-        <v>2964.2</v>
+        <v>2234.1</v>
       </c>
       <c r="P10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Q10">
-        <v>2870.9</v>
+        <v>2122.8666669999998</v>
       </c>
       <c r="S10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="T10">
-        <v>3340.7</v>
+        <v>2116.5333329999999</v>
       </c>
       <c r="V10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="W10">
-        <v>2936.6</v>
+        <v>2167.3000000000002</v>
       </c>
       <c r="Y10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z10">
-        <v>2849</v>
+        <v>2303.9</v>
       </c>
       <c r="AB10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC10">
-        <v>2944.7</v>
+        <v>2207.6999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B11">
-        <v>3163.6</v>
+        <v>2485.9666670000001</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>3146.1</v>
+        <v>2374.9</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H11">
-        <v>3374.5</v>
+        <v>3280.666667</v>
       </c>
       <c r="J11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K11">
-        <v>3153.8</v>
+        <v>2156</v>
       </c>
       <c r="M11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11">
-        <v>3246</v>
+        <v>2327.333333</v>
       </c>
       <c r="P11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q11">
-        <v>3187.7</v>
+        <v>2336.5</v>
       </c>
       <c r="S11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T11">
-        <v>3238.8</v>
+        <v>2281.3000000000002</v>
       </c>
       <c r="V11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W11">
-        <v>3171.6</v>
+        <v>2394.4</v>
       </c>
       <c r="Y11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z11">
-        <v>3169.2</v>
+        <v>2301.2333330000001</v>
       </c>
       <c r="AB11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC11">
-        <v>3255.3</v>
+        <v>2210.5333329999999</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -4652,9 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4663,681 +4658,681 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>488.4</v>
+        <v>13.646667000000001</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>402.3</v>
+        <v>5.6866669999999999</v>
       </c>
       <c r="G1">
         <v>0</v>
       </c>
       <c r="H1">
-        <v>12.33</v>
+        <v>1.0533330000000001</v>
       </c>
       <c r="J1">
         <v>0</v>
       </c>
       <c r="K1">
-        <v>142.9</v>
+        <v>6.8466670000000001</v>
       </c>
       <c r="M1">
         <v>0</v>
       </c>
       <c r="N1">
-        <v>504</v>
+        <v>11.70303</v>
       </c>
       <c r="P1">
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>530.29999999999995</v>
+        <v>4.3878789999999999</v>
       </c>
       <c r="S1">
         <v>0</v>
       </c>
       <c r="T1">
-        <v>488.1</v>
+        <v>6.4787879999999998</v>
       </c>
       <c r="V1">
         <v>0</v>
       </c>
       <c r="W1">
-        <v>582.20000000000005</v>
+        <v>4.912121</v>
       </c>
       <c r="Y1">
         <v>0</v>
       </c>
       <c r="Z1">
-        <v>8.9693880000000004</v>
+        <v>27.277965999999999</v>
       </c>
       <c r="AB1">
         <v>0</v>
       </c>
       <c r="AC1">
-        <v>10.11</v>
+        <v>44.696666999999998</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>560.20000000000005</v>
+        <v>6.2166670000000002</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>599.20000000000005</v>
+        <v>6.266667</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>11.08</v>
+        <v>0.87</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>479.7</v>
+        <v>6.5633330000000001</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>642.6</v>
+        <v>7.1727270000000001</v>
       </c>
       <c r="P2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>606.70000000000005</v>
+        <v>5.8060609999999997</v>
       </c>
       <c r="S2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2">
-        <v>583.70000000000005</v>
+        <v>6.3939389999999996</v>
       </c>
       <c r="V2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W2">
-        <v>667.5</v>
+        <v>5.9</v>
       </c>
       <c r="Y2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z2">
-        <v>6.06</v>
+        <v>21.760943000000001</v>
       </c>
       <c r="AB2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC2">
-        <v>6.052632</v>
+        <v>28.498328000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>733.1</v>
+        <v>7.2233330000000002</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>787.9</v>
+        <v>6.3633329999999999</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>10.92</v>
+        <v>0.81333299999999997</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>762.9</v>
+        <v>6.47</v>
       </c>
       <c r="M3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N3">
-        <v>845.5</v>
+        <v>7.5090909999999997</v>
       </c>
       <c r="P3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q3">
-        <v>867.5</v>
+        <v>9.9939389999999992</v>
       </c>
       <c r="S3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T3">
-        <v>846.8</v>
+        <v>8.6030300000000004</v>
       </c>
       <c r="V3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W3">
-        <v>844.2</v>
+        <v>5.5666669999999998</v>
       </c>
       <c r="Y3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Z3">
-        <v>5.030303</v>
+        <v>15.832215</v>
       </c>
       <c r="AB3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AC3">
-        <v>4.8499999999999996</v>
+        <v>24.072413999999998</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>1049.7</v>
+        <v>5.28</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>1037.2</v>
+        <v>6.01</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>11.22</v>
+        <v>0.86666699999999997</v>
       </c>
       <c r="J4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>1059.4000000000001</v>
+        <v>6.4733330000000002</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N4">
-        <v>1144.9000000000001</v>
+        <v>5.915152</v>
       </c>
       <c r="P4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q4">
-        <v>1151.4000000000001</v>
+        <v>5.4545450000000004</v>
       </c>
       <c r="S4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="T4">
-        <v>1091.8</v>
+        <v>6.7515150000000004</v>
       </c>
       <c r="V4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="W4">
-        <v>1099.8</v>
+        <v>6.351515</v>
       </c>
       <c r="Y4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Z4">
-        <v>3.73</v>
+        <v>21.716667000000001</v>
       </c>
       <c r="AB4">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AC4">
-        <v>7.05</v>
+        <v>22.146667000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>1372.8</v>
+        <v>7.023333</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>1374.2</v>
+        <v>6.943333</v>
       </c>
       <c r="G5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H5">
-        <v>11.4</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="J5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>1359.5</v>
+        <v>5.9266670000000001</v>
       </c>
       <c r="M5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>1395.8</v>
+        <v>5.618182</v>
       </c>
       <c r="P5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Q5">
-        <v>1451.2</v>
+        <v>20.775758</v>
       </c>
       <c r="S5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="T5">
-        <v>1390.3</v>
+        <v>5.6878789999999997</v>
       </c>
       <c r="V5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="W5">
-        <v>1394.1</v>
+        <v>5.5060609999999999</v>
       </c>
       <c r="Y5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Z5">
-        <v>7.21</v>
+        <v>19.575251000000002</v>
       </c>
       <c r="AB5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC5">
-        <v>4.4800000000000004</v>
+        <v>22.706666999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B6">
-        <v>1666.1</v>
+        <v>6.2566670000000002</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>1661.6</v>
+        <v>5.04</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>11.54</v>
+        <v>0.88666699999999998</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>1636.4</v>
+        <v>5.8866670000000001</v>
       </c>
       <c r="M6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6">
-        <v>1661.7</v>
+        <v>6.3333329999999997</v>
       </c>
       <c r="P6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q6">
-        <v>1656.9</v>
+        <v>8.5848479999999991</v>
       </c>
       <c r="S6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="T6">
-        <v>1642.5</v>
+        <v>6.1727270000000001</v>
       </c>
       <c r="V6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="W6">
-        <v>1722.1</v>
+        <v>5.412121</v>
       </c>
       <c r="Y6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Z6">
-        <v>5.4183669999999999</v>
+        <v>14.572391</v>
       </c>
       <c r="AB6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AC6">
-        <v>4.96</v>
+        <v>12.244147</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="B7">
-        <v>1951.6</v>
+        <v>6.2033329999999998</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="E7">
-        <v>1997.1</v>
+        <v>5.6866669999999999</v>
       </c>
       <c r="G7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="H7">
-        <v>12.32</v>
+        <v>0.81</v>
       </c>
       <c r="J7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K7">
-        <v>1940</v>
+        <v>7.7866669999999996</v>
       </c>
       <c r="M7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N7">
-        <v>2003.3</v>
+        <v>5.5727270000000004</v>
       </c>
       <c r="P7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q7">
-        <v>1959.3</v>
+        <v>5.0151519999999996</v>
       </c>
       <c r="S7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="T7">
-        <v>2010.8</v>
+        <v>6.2121209999999998</v>
       </c>
       <c r="V7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="W7">
-        <v>1990.4</v>
+        <v>5.7242420000000003</v>
       </c>
       <c r="Y7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Z7">
-        <v>4.8899999999999997</v>
+        <v>10.874575999999999</v>
       </c>
       <c r="AB7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AC7">
-        <v>4.8099999999999996</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="B8">
-        <v>2272.6999999999998</v>
+        <v>6.3733329999999997</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="E8">
-        <v>2268.5</v>
+        <v>4.8166669999999998</v>
       </c>
       <c r="G8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="H8">
-        <v>11.55</v>
+        <v>0.85666699999999996</v>
       </c>
       <c r="J8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="K8">
-        <v>2256</v>
+        <v>6.0066670000000002</v>
       </c>
       <c r="M8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="N8">
-        <v>2339.8000000000002</v>
+        <v>6.3151520000000003</v>
       </c>
       <c r="P8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="Q8">
-        <v>2307.4</v>
+        <v>5.2787879999999996</v>
       </c>
       <c r="S8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="T8">
-        <v>2290.1</v>
+        <v>6.3333329999999997</v>
       </c>
       <c r="V8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="W8">
-        <v>2275.8000000000002</v>
+        <v>5.4515149999999997</v>
       </c>
       <c r="Y8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="Z8">
-        <v>4.8099999999999996</v>
+        <v>11.907534</v>
       </c>
       <c r="AB8">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AC8">
-        <v>6.14</v>
+        <v>12.826667</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="B9">
-        <v>2555.3000000000002</v>
+        <v>5.2166670000000002</v>
       </c>
       <c r="D9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="E9">
-        <v>2565.6999999999998</v>
+        <v>17.073333000000002</v>
       </c>
       <c r="G9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="H9">
-        <v>11.57</v>
+        <v>0.89</v>
       </c>
       <c r="J9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K9">
-        <v>2579</v>
+        <v>5.56</v>
       </c>
       <c r="M9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N9">
-        <v>2558.1999999999998</v>
+        <v>7.6909090000000004</v>
       </c>
       <c r="P9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="Q9">
-        <v>2597.3000000000002</v>
+        <v>4.8848479999999999</v>
       </c>
       <c r="S9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="T9">
-        <v>2563.1</v>
+        <v>6.2818180000000003</v>
       </c>
       <c r="V9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="W9">
-        <v>2624</v>
+        <v>5.1666670000000003</v>
       </c>
       <c r="Y9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="Z9">
-        <v>5.23</v>
+        <v>9.60473</v>
       </c>
       <c r="AB9">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AC9">
-        <v>5.16</v>
+        <v>10.096667</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="B10">
-        <v>2881.4</v>
+        <v>5.24</v>
       </c>
       <c r="D10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E10">
-        <v>2852.9</v>
+        <v>4.8733329999999997</v>
       </c>
       <c r="G10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="H10">
-        <v>11.86</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="K10">
-        <v>2862.1</v>
+        <v>5.4866669999999997</v>
       </c>
       <c r="M10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="N10">
-        <v>2948.3</v>
+        <v>9.6424240000000001</v>
       </c>
       <c r="P10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Q10">
-        <v>2857.9</v>
+        <v>5.293939</v>
       </c>
       <c r="S10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="T10">
-        <v>3358.3</v>
+        <v>5.9969700000000001</v>
       </c>
       <c r="V10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="W10">
-        <v>2925.4</v>
+        <v>5.7818180000000003</v>
       </c>
       <c r="Y10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z10">
-        <v>4.58</v>
+        <v>17.276667</v>
       </c>
       <c r="AB10">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC10">
-        <v>4.1399999999999997</v>
+        <v>14.353535000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B11">
-        <v>3151.1</v>
+        <v>12.703333000000001</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E11">
-        <v>3132.3</v>
+        <v>5.5066670000000002</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H11">
-        <v>13.09</v>
+        <v>0.83666700000000005</v>
       </c>
       <c r="J11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K11">
-        <v>3149.8</v>
+        <v>6.1866669999999999</v>
       </c>
       <c r="M11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N11">
-        <v>3230.7</v>
+        <v>5.8545449999999999</v>
       </c>
       <c r="P11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q11">
-        <v>3172.8</v>
+        <v>5.2272730000000003</v>
       </c>
       <c r="S11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T11">
-        <v>3224.5</v>
+        <v>6.1121210000000001</v>
       </c>
       <c r="V11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W11">
-        <v>3154.8</v>
+        <v>5.087879</v>
       </c>
       <c r="Y11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z11">
-        <v>6.33</v>
+        <v>7.8053689999999998</v>
       </c>
       <c r="AB11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC11">
-        <v>8.2799999999999994</v>
+        <v>6.55</v>
       </c>
     </row>
   </sheetData>
@@ -5350,9 +5345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
